--- a/Factura.xlsx
+++ b/Factura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graf_\OneDrive\Рабочий стол\C#\Business Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E5450A-4818-4E78-B49E-222ED3E41B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F39C6B-126E-427B-8F88-10AD47902904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="3060" windowWidth="21600" windowHeight="11385" tabRatio="400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Приложение N 1 к постановлению Правительства Российской Федерации от 26 декабря 2011 г. N 1137
 (в ред. Постановления Правительства РФ от 19.08.2017 № 981)</t>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>5</t>
@@ -363,53 +360,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -756,463 +753,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16" t="s">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="16"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="18" t="s">
+      <c r="O10" s="14"/>
+      <c r="P10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13" t="s">
+      <c r="O11" s="16"/>
+      <c r="P11" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-    </row>
-    <row r="14" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="O14" s="9" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="O14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="S14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="S14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="K17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="K17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
     </row>
     <row r="18" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K17:U18"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="N6:O7"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="U6:U7"/>
@@ -1229,41 +1261,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="K17:U18"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" useFirstPageNumber="1" errors="blank" horizontalDpi="300" verticalDpi="300"/>
